--- a/approaches/agora_data/our_ground_truth/Spotify getAlbumTracks/response_property_constraints.xlsx
+++ b/approaches/agora_data/our_ground_truth/Spotify getAlbumTracks/response_property_constraints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThacSi\API-Testing\Eval\agora_data\our_ground_truth\Spotify getAlbumTracks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD81DC70-1AEB-470A-BAF2-770778C5AEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9867B4B-EEBB-494E-9377-717174407FE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1695" windowWidth="23235" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="response_property_constraints" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>operation</t>
   </si>
@@ -58,12 +58,6 @@
     <t>artist-simple</t>
   </si>
   <si>
-    <t>external_urls</t>
-  </si>
-  <si>
-    <t>Known external URLs for this artist. schema: {"additionalProperties": {"type": "string"}, "type": "object"} schema: {"additionalProperties": {"type": "string"}, "type": "object"}</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -91,9 +85,6 @@
     <t>The track length in milliseconds. schema: {"type": "integer"} schema: {"type": "integer"}</t>
   </si>
   <si>
-    <t>Known external URLs for this track. schema: {"additionalProperties": {"type": "string"}, "type": "object"} schema: {"additionalProperties": {"type": "string"}, "type": "object"}</t>
-  </si>
-  <si>
     <t>is_local</t>
   </si>
   <si>
@@ -137,6 +128,21 @@
   </si>
   <si>
     <t>Whether or not the track has explicit lyrics (true = yes it does; false = no it does not OR unknown</t>
+  </si>
+  <si>
+    <t>A link to the Web API endpoint providing full details of the artist</t>
+  </si>
+  <si>
+    <t>available_markets</t>
+  </si>
+  <si>
+    <t>A list of the countries in which the track can be played, identified by their ISO 3166-1 alpha-2 code</t>
+  </si>
+  <si>
+    <t>A link to the Web API endpoint providing full details of the track</t>
+  </si>
+  <si>
+    <t>The object type: 'track'</t>
   </si>
 </sst>
 </file>
@@ -977,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,13 +1079,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1087,7 +1093,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -1101,13 +1107,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1115,10 +1121,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -1129,7 +1135,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -1143,13 +1149,13 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1160,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1174,10 +1180,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1185,13 +1191,13 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1199,10 +1205,10 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
         <v>36</v>
@@ -1213,13 +1219,41 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
